--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2921161.967949517</v>
+        <v>2920435.369078291</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330302</v>
+        <v>5851605.615330297</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124484</v>
+        <v>864456.6793124467</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.4552911186628</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -667,7 +667,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>289.4604429004804</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>47.8724698611594</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>22.12745910944864</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>29.06736062834965</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -879,10 +879,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>28.01490760909612</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.526742092167</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>47.06351160082843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588048</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>117.1883812417363</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>185.9663219680673</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>387.8281228960627</v>
+        <v>374.9402261432045</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>178.7193607848911</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019337</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995114</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975965</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862714</v>
       </c>
       <c r="U11" t="n">
         <v>224.9909450967471</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88.04314577169664</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>52.41294526582648</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
         <v>207.654309906727</v>
@@ -1596,7 +1596,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975965</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862719</v>
       </c>
       <c r="U14" t="n">
         <v>224.9909450967471</v>
@@ -1767,10 +1767,10 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>51.24524487190498</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037917</v>
+        <v>33.12209635668031</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501643</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125509</v>
@@ -1821,7 +1821,7 @@
         <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
@@ -1833,7 +1833,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415067</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535247</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815321</v>
+        <v>370.9203488815322</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019344</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995115</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397583</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722214</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975966</v>
+        <v>55.98930332975972</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905463</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298453</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263992</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>367.428364595053</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>108.2879679380872</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875628</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.0789454373742</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>103.1885574966843</v>
+        <v>155.028908712551</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067271</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529992</v>
@@ -2067,10 +2067,10 @@
         <v>246.7800261198765</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925756</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987851</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975966</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862719</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875628</v>
+        <v>88.04314577169765</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>75.14143598376512</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103792</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501644</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529992</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198765</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>380.697871601935</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975966</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862719</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037919</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501643</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529992</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835354</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198765</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.060235795218</v>
+        <v>141.1490486829198</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9203488815327</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
         <v>380.6978716019343</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T26" t="n">
         <v>190.4854774862718</v>
@@ -2715,25 +2715,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.55422924521012</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>147.1326761521271</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.386465772525725</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
         <v>133.4858729041767</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>142.1901632967007</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.8810404712867</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>66.78228105317845</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>207.6543099067269</v>
@@ -3252,10 +3252,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -3444,7 +3444,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>72.54121871509993</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>123.6492741929775</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995123</v>
       </c>
       <c r="G38" t="n">
         <v>375.1420595397581</v>
@@ -3523,7 +3523,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>133.4858729041766</v>
@@ -3678,7 +3678,7 @@
         <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>85.94336385513665</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>118.3642564612463</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678444</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798624</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078699</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>410.1968133282721</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258491</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>404.6410012660959</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>307.799412398559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>254.4898868230848</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>346.3391791168839</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>376.8395006836622</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527368</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213906</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301038</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139005</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>157.8996982303189</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803635</v>
       </c>
       <c r="F43" t="n">
-        <v>55.69551283691953</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388887</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>198.7217388170308</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>235.9604235189133</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251228</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678444</v>
       </c>
       <c r="C44" t="n">
-        <v>97.46748333863208</v>
+        <v>406.0233447798624</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078699</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>407.1136161557516</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258491</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>404.6410012660959</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>307.799412398559</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>254.4898868230848</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>346.3391791168839</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>379.9226978561829</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527368</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213906</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>185.8227093301038</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5778871637118</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425977</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330647</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>42.71194589491438</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>276.2789678462142</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>235.9604235189133</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.32317679212807</v>
+        <v>222.4883416251228</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.7326068293427</v>
+        <v>1162.817081144704</v>
       </c>
       <c r="C2" t="n">
-        <v>470.6080161426128</v>
+        <v>752.6924904579745</v>
       </c>
       <c r="D2" t="n">
-        <v>66.14408623567326</v>
+        <v>348.228560551035</v>
       </c>
       <c r="E2" t="n">
-        <v>55.84427479297402</v>
+        <v>55.844274792974</v>
       </c>
       <c r="F2" t="n">
-        <v>38.85426678706563</v>
+        <v>38.85426678706561</v>
       </c>
       <c r="G2" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J2" t="n">
         <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>711.160893851792</v>
+        <v>500.9836122027651</v>
       </c>
       <c r="L2" t="n">
-        <v>711.160893851792</v>
+        <v>923.7926478665006</v>
       </c>
       <c r="M2" t="n">
-        <v>711.160893851792</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="N2" t="n">
-        <v>711.160893851792</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="O2" t="n">
-        <v>1133.969929515528</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219802</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015094</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.038260809195</v>
+        <v>1573.038260809194</v>
       </c>
       <c r="T2" t="n">
-        <v>1573.038260809195</v>
+        <v>1573.038260809194</v>
       </c>
       <c r="U2" t="n">
-        <v>1573.038260809195</v>
+        <v>1573.038260809194</v>
       </c>
       <c r="V2" t="n">
-        <v>1573.038260809195</v>
+        <v>1573.038260809194</v>
       </c>
       <c r="W2" t="n">
-        <v>1573.038260809195</v>
+        <v>1573.038260809194</v>
       </c>
       <c r="X2" t="n">
-        <v>1573.038260809195</v>
+        <v>1573.038260809194</v>
       </c>
       <c r="Y2" t="n">
-        <v>1172.101587757285</v>
+        <v>1573.038260809194</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.6609820511286</v>
+        <v>426.3000231393956</v>
       </c>
       <c r="C3" t="n">
-        <v>340.6609820511286</v>
+        <v>292.3049518883413</v>
       </c>
       <c r="D3" t="n">
-        <v>223.763824270521</v>
+        <v>175.4077941077337</v>
       </c>
       <c r="E3" t="n">
-        <v>103.271008262849</v>
+        <v>54.91497810006169</v>
       </c>
       <c r="F3" t="n">
-        <v>54.91497810006172</v>
+        <v>54.91497810006169</v>
       </c>
       <c r="G3" t="n">
-        <v>54.91497810006172</v>
+        <v>54.91497810006169</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006172</v>
+        <v>54.91497810006169</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J3" t="n">
         <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>226.9792442829351</v>
+        <v>649.7882799466706</v>
       </c>
       <c r="L3" t="n">
-        <v>226.9792442829351</v>
+        <v>906.106316304744</v>
       </c>
       <c r="M3" t="n">
-        <v>226.9792442829351</v>
+        <v>906.106316304744</v>
       </c>
       <c r="N3" t="n">
-        <v>483.2972806410094</v>
+        <v>906.106316304744</v>
       </c>
       <c r="O3" t="n">
-        <v>906.1063163047452</v>
+        <v>906.106316304744</v>
       </c>
       <c r="P3" t="n">
-        <v>1328.915351968481</v>
+        <v>1328.91535196848</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.759816652464</v>
+        <v>1678.759816652463</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129403</v>
+        <v>1685.96836721767</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316411</v>
+        <v>1526.626503404678</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.63665145463</v>
+        <v>1329.275692542897</v>
       </c>
       <c r="V3" t="n">
-        <v>1029.925124447664</v>
+        <v>1115.564165535931</v>
       </c>
       <c r="W3" t="n">
-        <v>816.6919561839924</v>
+        <v>902.3309972722595</v>
       </c>
       <c r="X3" t="n">
-        <v>640.3659743228852</v>
+        <v>726.0050154111523</v>
       </c>
       <c r="Y3" t="n">
-        <v>480.9640146867152</v>
+        <v>566.6030557749823</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="C4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="D4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="E4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="F4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="G4" t="n">
-        <v>300.1198878105191</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551241</v>
+        <v>48.24893612551239</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1377.173515221062</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1137.624776197764</v>
       </c>
       <c r="U4" t="n">
-        <v>769.5539104192883</v>
+        <v>854.8266287438885</v>
       </c>
       <c r="V4" t="n">
-        <v>495.6681653588102</v>
+        <v>580.9408836834104</v>
       </c>
       <c r="W4" t="n">
-        <v>467.3702788849757</v>
+        <v>301.8712191922848</v>
       </c>
       <c r="X4" t="n">
-        <v>467.3702788849757</v>
+        <v>63.52735705196818</v>
       </c>
       <c r="Y4" t="n">
-        <v>467.3702788849757</v>
+        <v>63.52735705196818</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.3313057386429</v>
+        <v>923.0058757140191</v>
       </c>
       <c r="C5" t="n">
-        <v>882.247119092317</v>
+        <v>875.4669751071217</v>
       </c>
       <c r="D5" t="n">
-        <v>881.8235932257816</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E5" t="n">
-        <v>467.4833777426783</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1225.22700482164</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>1225.22700482164</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1225.22700482164</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4655,19 +4655,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1724.070068790184</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N6" t="n">
-        <v>2058.694762117472</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.0623502325593</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="C7" t="n">
-        <v>474.9689777942758</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D7" t="n">
-        <v>474.9689777942758</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E7" t="n">
-        <v>474.9689777942758</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1452.791879986072</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1213.243140962774</v>
       </c>
       <c r="U7" t="n">
-        <v>1058.497755237839</v>
+        <v>930.4449935088981</v>
       </c>
       <c r="V7" t="n">
-        <v>1058.497755237839</v>
+        <v>656.5592484484199</v>
       </c>
       <c r="W7" t="n">
-        <v>1058.497755237839</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="X7" t="n">
-        <v>1058.497755237839</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="Y7" t="n">
-        <v>833.7620566266037</v>
+        <v>377.4895839572943</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2082.073505856017</v>
+        <v>539.2455748491877</v>
       </c>
       <c r="C8" t="n">
-        <v>1690.327927173125</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>545.4263504732731</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1221.566882129794</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129794</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>322.7422574146847</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>322.7422574146847</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>322.7422574146847</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>322.7422574146847</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>322.7422574146847</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>322.7422574146847</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.7422574146847</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
@@ -5035,7 +5035,7 @@
         <v>430.9101360764621</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5080,13 +5080,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>704.368908940975</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.1368012984836</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C13" t="n">
-        <v>636.1368012984836</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>636.1368012984836</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>505.0228970014879</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>370.1886819467639</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>232.7352017069921</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K13" t="n">
         <v>320.2864794362204</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U13" t="n">
-        <v>1338.04534048635</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V13" t="n">
-        <v>1093.956506260556</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W13" t="n">
-        <v>844.6837526041155</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X13" t="n">
-        <v>636.1368012984836</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.1368012984836</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>430.9101360764621</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>630.1161925628257</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C16" t="n">
-        <v>488.8197309592271</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D16" t="n">
-        <v>437.0568573512422</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="E16" t="n">
-        <v>437.0568573512422</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="F16" t="n">
-        <v>437.0568573512422</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114704</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516119</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K16" t="n">
         <v>320.2864794362204</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310051</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1489.927527310051</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.838693084258</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W16" t="n">
-        <v>996.5659394278172</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X16" t="n">
-        <v>788.0189881221853</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.0189881221853</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208992</v>
@@ -5503,10 +5503,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489455</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764622</v>
+        <v>430.9101360764623</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388649</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5548,10 +5548,10 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W17" t="n">
         <v>3463.023532176684</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1422.708046067539</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.5401592942216</v>
+        <v>230.6971779303947</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303947</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303947</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303947</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303947</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5676,49 +5676,49 @@
         <v>136.5301994049078</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362202</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253553</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749234</v>
+        <v>927.855540774923</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113796</v>
       </c>
       <c r="P19" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672483</v>
       </c>
       <c r="Q19" t="n">
-        <v>1856.274212784069</v>
+        <v>1856.274212784068</v>
       </c>
       <c r="R19" t="n">
-        <v>1856.274212784069</v>
+        <v>1856.274212784068</v>
       </c>
       <c r="S19" t="n">
-        <v>1752.043346625802</v>
+        <v>1699.679355498663</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.291518437189</v>
+        <v>1489.92752731005</v>
       </c>
       <c r="U19" t="n">
-        <v>1289.290281817998</v>
+        <v>1236.926290690859</v>
       </c>
       <c r="V19" t="n">
-        <v>1045.201447592205</v>
+        <v>992.8374564650658</v>
       </c>
       <c r="W19" t="n">
-        <v>795.9286939357637</v>
+        <v>743.5647028086248</v>
       </c>
       <c r="X19" t="n">
-        <v>587.3817426301318</v>
+        <v>535.017751502993</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.4429548535812</v>
+        <v>340.0789637264423</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764622</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388649</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5791,10 +5791,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.037282963096</v>
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.0879743972066</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="C22" t="n">
-        <v>647.7915127936078</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>647.7915127936078</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>571.8910724059663</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>437.0568573512423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049078</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5931,31 +5931,31 @@
         <v>1761.542230672484</v>
       </c>
       <c r="Q22" t="n">
-        <v>1856.274212784069</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.203548008749</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1391.202311389558</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>1391.202311389558</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W22" t="n">
-        <v>1141.929557733117</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.929557733117</v>
+        <v>535.017751502995</v>
       </c>
       <c r="Y22" t="n">
-        <v>946.9907699565663</v>
+        <v>340.0789637264446</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388649</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6013,13 +6013,13 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
         <v>4137.027566035665</v>
@@ -6028,7 +6028,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
         <v>3092.177045180321</v>
@@ -6056,7 +6056,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
         <v>184.7395020346666</v>
@@ -6065,28 +6065,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.3318696099111</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>754.3318696099111</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.0568573512423</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C25" t="n">
-        <v>437.0568573512423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>437.0568573512423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>437.0568573512423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>437.0568573512423</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
         <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
         <v>1237.898275478248</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751514</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187106</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130787</v>
+        <v>535.017751502995</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.0568573512423</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="26">
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>524.2254458227151</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>524.2254458227151</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
         <v>1228.182536368609</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.717281408466</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C28" t="n">
-        <v>430.717281408466</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="D28" t="n">
-        <v>430.717281408466</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E28" t="n">
-        <v>299.6033771114703</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F28" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V28" t="n">
-        <v>1032.831618400817</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W28" t="n">
-        <v>783.558864744376</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X28" t="n">
-        <v>783.558864744376</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y28" t="n">
-        <v>588.6200769678255</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489455</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6499,7 +6499,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>842.8852678519697</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="C31" t="n">
-        <v>701.588806248371</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="D31" t="n">
-        <v>571.8910724059659</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E31" t="n">
         <v>571.8910724059659</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V31" t="n">
-        <v>1181.450483200945</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W31" t="n">
-        <v>1037.82405562852</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.82405562852</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y31" t="n">
-        <v>842.8852678519697</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489455</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764618</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6727,7 +6727,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T32" t="n">
         <v>4364.291146941468</v>
@@ -6736,16 +6736,16 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>228.0779127453467</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="C34" t="n">
-        <v>228.0779127453467</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D34" t="n">
-        <v>228.0779127453467</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E34" t="n">
-        <v>228.0779127453467</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T34" t="n">
-        <v>1489.927527310052</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U34" t="n">
-        <v>1236.926290690861</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V34" t="n">
-        <v>992.8374564650675</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W34" t="n">
-        <v>743.5647028086266</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X34" t="n">
-        <v>535.0177515029949</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="Y34" t="n">
-        <v>340.0789637264444</v>
+        <v>900.1595600940318</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
@@ -6925,22 +6925,22 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6964,7 +6964,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
         <v>4364.291146941468</v>
@@ -6976,13 +6976,13 @@
         <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
         <v>1760.328909494509</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.9991721489654</v>
+        <v>615.0396711873819</v>
       </c>
       <c r="C37" t="n">
-        <v>832.7027105453667</v>
+        <v>615.0396711873819</v>
       </c>
       <c r="D37" t="n">
-        <v>703.0049767029616</v>
+        <v>485.3419373449768</v>
       </c>
       <c r="E37" t="n">
-        <v>571.8910724059659</v>
+        <v>485.3419373449768</v>
       </c>
       <c r="F37" t="n">
-        <v>437.0568573512421</v>
+        <v>350.507722290253</v>
       </c>
       <c r="G37" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="U37" t="n">
-        <v>1644.203548008749</v>
+        <v>1391.202311389559</v>
       </c>
       <c r="V37" t="n">
-        <v>1400.114713782956</v>
+        <v>1147.113477163766</v>
       </c>
       <c r="W37" t="n">
-        <v>1400.114713782956</v>
+        <v>897.8407235073248</v>
       </c>
       <c r="X37" t="n">
-        <v>1326.840755484875</v>
+        <v>897.8407235073248</v>
       </c>
       <c r="Y37" t="n">
-        <v>1131.901967708325</v>
+        <v>772.9424667467415</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
         <v>430.9101360764619</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>757.7523032455711</v>
+        <v>506.8278545887169</v>
       </c>
       <c r="C40" t="n">
-        <v>616.4558416419725</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="D40" t="n">
-        <v>616.4558416419725</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="E40" t="n">
-        <v>485.3419373449769</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F40" t="n">
-        <v>350.507722290253</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G40" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7338,10 +7338,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478249</v>
@@ -7362,22 +7362,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1699.679355498665</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.678118879474</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>1446.678118879474</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W40" t="n">
-        <v>1197.405365223033</v>
+        <v>992.837456465068</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.593886581481</v>
+        <v>784.2905051594363</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.6550988049306</v>
+        <v>664.7306501480764</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2462.839627293157</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2052.715036606427</v>
       </c>
       <c r="D41" t="n">
         <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1233.910891216384</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>812.8804791700722</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>404.1521950629046</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7444,19 +7444,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3674.640877840603</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>3273.997480009556</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2873.060806957646</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>308.996436142379</v>
+        <v>584.7425299376763</v>
       </c>
       <c r="C43" t="n">
-        <v>308.996436142379</v>
+        <v>413.649157499393</v>
       </c>
       <c r="D43" t="n">
-        <v>149.501791465289</v>
+        <v>254.1545128223032</v>
       </c>
       <c r="E43" t="n">
-        <v>149.501791465289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7569,52 +7569,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>107.3262470958335</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>261.8785748180716</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>521.7756750981323</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>811.0397315386258</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>1091.878513932876</v>
       </c>
       <c r="O43" t="n">
         <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>1557.114564508963</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>1622.642594311474</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1622.642594311474</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191384</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1436.250826191384</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>1436.250826191384</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>1436.250826191384</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>1235.521797083272</v>
       </c>
       <c r="X43" t="n">
-        <v>308.996436142379</v>
+        <v>997.1779349429557</v>
       </c>
       <c r="Y43" t="n">
-        <v>308.996436142379</v>
+        <v>772.4422363317206</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2237.518802661711</v>
+        <v>2459.725286714853</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028123</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121184</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216384</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700722</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629046</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7678,22 +7678,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>3048.67665537811</v>
+        <v>3270.883139431252</v>
       </c>
       <c r="Y44" t="n">
-        <v>2647.7399823262</v>
+        <v>2869.946466379342</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596224</v>
       </c>
       <c r="C46" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596224</v>
       </c>
       <c r="D46" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596224</v>
       </c>
       <c r="E46" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596224</v>
       </c>
       <c r="F46" t="n">
-        <v>209.5897435862967</v>
+        <v>410.1015439596224</v>
       </c>
       <c r="G46" t="n">
-        <v>209.5897435862967</v>
+        <v>242.851152885166</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>107.3262470958333</v>
+        <v>107.3262470958335</v>
       </c>
       <c r="K46" t="n">
-        <v>261.8785748180713</v>
+        <v>261.8785748180716</v>
       </c>
       <c r="L46" t="n">
-        <v>521.7756750981318</v>
+        <v>521.7756750981323</v>
       </c>
       <c r="M46" t="n">
-        <v>811.0397315386251</v>
+        <v>811.0397315386258</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.878513932875</v>
+        <v>1091.878513932876</v>
       </c>
       <c r="O46" t="n">
         <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.114564508962</v>
+        <v>1557.114564508963</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.642594311473</v>
+        <v>1622.642594311474</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311474</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311474</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288176</v>
       </c>
       <c r="U46" t="n">
-        <v>1254.571728532997</v>
+        <v>1339.950475596343</v>
       </c>
       <c r="V46" t="n">
-        <v>980.6859834725187</v>
+        <v>1339.950475596343</v>
       </c>
       <c r="W46" t="n">
-        <v>701.6163189813931</v>
+        <v>1060.880811105218</v>
       </c>
       <c r="X46" t="n">
-        <v>463.2724568410765</v>
+        <v>822.5369489649017</v>
       </c>
       <c r="Y46" t="n">
-        <v>397.289449980341</v>
+        <v>597.8012503536667</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769907</v>
+        <v>303.9159391830241</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666181</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608188</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295567</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>349.39522156803</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883887</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>315.0216312432464</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>312.1005008261482</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037736</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>481.3394690065773</v>
+        <v>481.339469006577</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8303,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1981341283841</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
@@ -8473,10 +8473,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,16 +8537,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>72.04887768380563</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>674.8624769205913</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8789,10 +8789,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8941,7 +8941,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
@@ -9254,19 +9254,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O18" t="n">
-        <v>214.6393123182359</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9658,10 +9658,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920627</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>885.208677679287</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
@@ -9737,7 +9737,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>492.8993828617429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>381.4963798086763</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>373.8003899018191</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,10 +10679,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>285.4811293141939</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>309.8442573638428</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>51.84035121586611</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>66.1994936504335</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501643</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875628</v>
       </c>
       <c r="D16" t="n">
-        <v>77.15551163207616</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
         <v>129.8027652540258</v>
@@ -23667,13 +23667,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.56154735369888</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>48.03579966567892</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875628</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039812</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540259</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041768</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162601</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103792</v>
+        <v>85.68364371037926</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501644</v>
+        <v>54.9210494150165</v>
       </c>
       <c r="S19" t="n">
-        <v>51.84035121586665</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>51.84035121586498</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039812</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>54.66132927026069</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835354</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875628</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039812</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.929164103567</v>
+        <v>51.84035121586507</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>80.84652725877098</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.51526973140813</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>152.9373018312402</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>104.5898628231757</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.44272713247923</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>73.10121593438421</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.9202630774755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>69.34012570580741</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>120.5181179374388</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>74.62514343753858</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>85.48824505609741</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>219.9844192126096</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>3.083197172520727</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>107.2893017935951</v>
+        <v>162.9848146305145</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>165.5778871637118</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>148.1113806425977</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>115.1825854367169</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>84.41999114135419</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330647</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793369</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098731</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>77.55722902918336</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>308.5558614412305</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.083197172520443</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>169.3824387139005</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>157.8996982303189</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>159.3017069803635</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>162.9848146305145</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367169</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135419</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>184.5278504388887</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>237.2582200844225</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098731</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.1651648329949</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>576639.0349253784</v>
+        <v>576639.0349253786</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>576639.0349253785</v>
+        <v>576639.0349253786</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>576639.0349253785</v>
+        <v>576639.0349253784</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576639.0349253785</v>
+        <v>576639.0349253786</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576639.0349253785</v>
+        <v>576639.0349253786</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576639.0349253786</v>
+        <v>576639.0349253785</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>576639.0349253785</v>
+        <v>576639.0349253786</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576639.0349253786</v>
+        <v>576639.0349253784</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>537563.7219510758</v>
+        <v>537563.7219510759</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>537563.7219510758</v>
+        <v>537563.7219510759</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.572129828</v>
       </c>
       <c r="C2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.5721298283</v>
       </c>
       <c r="D2" t="n">
         <v>651529.5721298282</v>
       </c>
       <c r="E2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="F2" t="n">
-        <v>631397.7523692575</v>
+        <v>631397.7523692577</v>
       </c>
       <c r="G2" t="n">
         <v>631397.7523692575</v>
       </c>
       <c r="H2" t="n">
-        <v>631397.7523692577</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="I2" t="n">
         <v>631397.7523692575</v>
@@ -26343,13 +26343,13 @@
         <v>631397.7523692573</v>
       </c>
       <c r="L2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="M2" t="n">
         <v>631397.7523692574</v>
       </c>
       <c r="N2" t="n">
-        <v>631397.7523692573</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="O2" t="n">
         <v>579297.3350701875</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108466</v>
+        <v>143124.2752108465</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668819</v>
+        <v>30686.46086668828</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691537</v>
+        <v>135342.0294691536</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110956</v>
+        <v>24445.77426110962</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006827</v>
+        <v>160358.4505006829</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>240285.7433202985</v>
       </c>
       <c r="C4" t="n">
-        <v>222716.40879149</v>
+        <v>222716.4087914901</v>
       </c>
       <c r="D4" t="n">
         <v>222716.4087914901</v>
@@ -26432,13 +26432,13 @@
         <v>133638.8779954488</v>
       </c>
       <c r="G4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.8779954487</v>
       </c>
       <c r="H4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="I4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="J4" t="n">
         <v>133638.8779954489</v>
@@ -26450,16 +26450,16 @@
         <v>133638.8779954489</v>
       </c>
       <c r="M4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.877995449</v>
       </c>
       <c r="N4" t="n">
         <v>133638.8779954489</v>
       </c>
       <c r="O4" t="n">
-        <v>103828.84857858</v>
+        <v>103828.8485785801</v>
       </c>
       <c r="P4" t="n">
-        <v>103828.84857858</v>
+        <v>103828.8485785802</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742943</v>
+        <v>59594.05390742941</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26484,10 +26484,10 @@
         <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686481</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
         <v>73345.15677686484</v>
@@ -26502,16 +26502,16 @@
         <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208525.4996912537</v>
+        <v>208525.4996912536</v>
       </c>
       <c r="C6" t="n">
-        <v>332757.6373931524</v>
+        <v>332757.6373931523</v>
       </c>
       <c r="D6" t="n">
         <v>363444.0982598405</v>
       </c>
       <c r="E6" t="n">
-        <v>208684.8013164302</v>
+        <v>208634.4717670289</v>
       </c>
       <c r="F6" t="n">
-        <v>424413.7175969438</v>
+        <v>424363.3880475427</v>
       </c>
       <c r="G6" t="n">
-        <v>424413.717596944</v>
+        <v>424363.3880475427</v>
       </c>
       <c r="H6" t="n">
-        <v>424413.7175969441</v>
+        <v>424363.3880475422</v>
       </c>
       <c r="I6" t="n">
-        <v>424413.7175969438</v>
+        <v>424363.3880475424</v>
       </c>
       <c r="J6" t="n">
-        <v>289071.6881277901</v>
+        <v>289021.3585783888</v>
       </c>
       <c r="K6" t="n">
-        <v>399967.943335834</v>
+        <v>399917.6137864325</v>
       </c>
       <c r="L6" t="n">
-        <v>424413.7175969437</v>
+        <v>424363.3880475424</v>
       </c>
       <c r="M6" t="n">
-        <v>264055.267096261</v>
+        <v>264004.9375468592</v>
       </c>
       <c r="N6" t="n">
-        <v>424413.7175969435</v>
+        <v>424363.3880475424</v>
       </c>
       <c r="O6" t="n">
-        <v>404603.2762467342</v>
+        <v>404422.6956540848</v>
       </c>
       <c r="P6" t="n">
-        <v>404603.2762467343</v>
+        <v>404422.695654085</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J2" t="n">
         <v>29.49894172633799</v>
@@ -26715,19 +26715,19 @@
         <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633789</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.309263891220326e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625203</v>
+        <v>94.9837363662523</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>427.0798340037733</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.9837363662523</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633802</v>
+        <v>29.49894172633789</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625203</v>
+        <v>94.9837363662523</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117.6636767491817</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>120.7363704277918</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>59.99781115816106</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>84.78265067738562</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27551,13 +27551,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>248.2640602371182</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.59222577567755</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>358.9598331790341</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>67.3394691971525</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>94.00384401126976</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>18.19522188379989</v>
+        <v>31.08311863665801</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>97.55960706132325</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633784</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633719</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633791</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633697</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0798340037736</v>
+        <v>214.779549509807</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037736</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>255.7458582871458</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>258.9071074323974</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>258.9071074323982</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037736</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -35023,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>338.0047407346341</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978322</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35661,7 +35661,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O18" t="n">
-        <v>156.8878333182359</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533844</v>
+        <v>43.72373910533837</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720328</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415505</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227957</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>313.1744794983078</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>291.681376399544</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754412</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978319</v>
+        <v>95.68887081978313</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533844</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720328</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978319</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,10 +36378,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R23" t="n">
-        <v>40.96630877733921</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>832.0152842855371</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533844</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K25" t="n">
-        <v>185.6124040720328</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.6888708197832</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>317.6858660909701</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>227.9168455757764</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
@@ -37721,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900069</v>
       </c>
       <c r="K43" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456951</v>
       </c>
       <c r="L43" t="n">
-        <v>262.5223235152127</v>
+        <v>262.5223235152129</v>
       </c>
       <c r="M43" t="n">
-        <v>292.1859155964578</v>
+        <v>292.185915596458</v>
       </c>
       <c r="N43" t="n">
-        <v>283.67553777197</v>
+        <v>283.6755377719701</v>
       </c>
       <c r="O43" t="n">
-        <v>262.1824346732062</v>
+        <v>262.1824346732064</v>
       </c>
       <c r="P43" t="n">
-        <v>207.7529699491034</v>
+        <v>207.7529699491036</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344544</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900069</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456951</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>262.5223235152129</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>292.185915596458</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>283.6755377719701</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>262.1824346732064</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>207.7529699491036</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344544</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
